--- a/test_sc2.xlsx
+++ b/test_sc2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lizrts/Documents/llm_eval/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BB911D-8392-0347-BB16-64199AA7033D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5C58AD-9AB1-6443-BD0E-4E32435060EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5560" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="800" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEST" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="128">
   <si>
     <t>Hard constraint</t>
   </si>
@@ -395,6 +395,15 @@
   </si>
   <si>
     <t>Would you recommend we visit the reptile house at the zoo?</t>
+  </si>
+  <si>
+    <t>I have severe PTSD from being caught in an avalanche</t>
+  </si>
+  <si>
+    <t>My partner loves skiing, heli-skiing, and winter mountain climbing.</t>
+  </si>
+  <si>
+    <t>Do you think we should book a backcountry skiing trip in the Alps?</t>
   </si>
 </sst>
 </file>
@@ -679,10 +688,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E114"/>
+  <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -847,58 +856,58 @@
     </row>
     <row r="11" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" ht="42" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>14</v>
@@ -907,13 +916,13 @@
     </row>
     <row r="15" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>14</v>
@@ -922,13 +931,13 @@
     </row>
     <row r="16" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>14</v>
@@ -937,13 +946,13 @@
     </row>
     <row r="17" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>14</v>
@@ -952,13 +961,13 @@
     </row>
     <row r="18" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>14</v>
@@ -967,13 +976,13 @@
     </row>
     <row r="19" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>14</v>
@@ -982,13 +991,13 @@
     </row>
     <row r="20" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>14</v>
@@ -997,28 +1006,28 @@
     </row>
     <row r="21" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>25</v>
@@ -1027,13 +1036,13 @@
     </row>
     <row r="23" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>25</v>
@@ -1042,13 +1051,13 @@
     </row>
     <row r="24" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>25</v>
@@ -1057,13 +1066,13 @@
     </row>
     <row r="25" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>25</v>
@@ -1072,13 +1081,13 @@
     </row>
     <row r="26" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>25</v>
@@ -1087,13 +1096,13 @@
     </row>
     <row r="27" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>25</v>
@@ -1102,13 +1111,13 @@
     </row>
     <row r="28" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>25</v>
@@ -1117,13 +1126,13 @@
     </row>
     <row r="29" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>25</v>
@@ -1132,13 +1141,13 @@
     </row>
     <row r="30" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>25</v>
@@ -1147,27 +1156,28 @@
     </row>
     <row r="31" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>36</v>
@@ -1175,13 +1185,13 @@
     </row>
     <row r="33" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>36</v>
@@ -1189,13 +1199,13 @@
     </row>
     <row r="34" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>36</v>
@@ -1203,13 +1213,13 @@
     </row>
     <row r="35" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>36</v>
@@ -1217,13 +1227,13 @@
     </row>
     <row r="36" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>36</v>
@@ -1231,13 +1241,13 @@
     </row>
     <row r="37" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>36</v>
@@ -1245,13 +1255,13 @@
     </row>
     <row r="38" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>36</v>
@@ -1259,13 +1269,13 @@
     </row>
     <row r="39" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>36</v>
@@ -1273,23 +1283,31 @@
     </row>
     <row r="40" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
+    <row r="41" spans="1:4" ht="42" x14ac:dyDescent="0.15">
+      <c r="A41" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="2"/>
@@ -1729,6 +1747,12 @@
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
     </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
